--- a/Excel_Analysis/CalibrationResults.xlsx
+++ b/Excel_Analysis/CalibrationResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Empirical" sheetId="2" r:id="rId1"/>
@@ -113,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -345,12 +345,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -370,7 +370,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -655,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +664,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -721,55 +720,55 @@
       <c r="A2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.304757784</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>-1.0142672E-2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.10898118</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.0416441E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.140404209</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2.2488448000000001E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>2.3288630000000001E-2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2.1220643000000001E-2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>-1.3172524E-2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>-1.8029458000000002E-2</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>5.7025340000000004E-3</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>-2.9751427E-2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>4.0790959999999999E-3</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>-2.1463751E-2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>-6.0895532000000002E-2</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>-2.7707988999999999E-2</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>-3.2905505000000002E-2</v>
       </c>
     </row>
@@ -777,55 +776,55 @@
       <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="2">
         <v>1.0545732000000001</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="2">
         <v>0.17182765</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="2">
         <v>0.14027697</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="2">
         <v>0.22056956</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="2">
         <v>0.16129219</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="2">
         <v>8.1335740000000004E-2</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="2">
         <v>3.1536019999999998E-2</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="2">
         <v>8.6675189999999999E-2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="2">
         <v>8.4786180000000003E-2</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="2">
         <v>8.2719089999999995E-2</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="2">
         <v>0.10607202</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="2">
         <v>8.984317E-2</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="2">
         <v>0.15452560000000001</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="2">
         <v>0.31673030000000002</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="2">
         <v>0.21566994</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="2">
         <v>0.18203209000000001</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="2">
         <v>1.1943128000000001</v>
       </c>
     </row>
@@ -852,7 +851,7 @@
       <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -905,7 +904,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3">
@@ -2168,7 +2167,7 @@
       <c r="A26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -2238,7 +2237,7 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="5">
@@ -3210,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3508,76 +3507,76 @@
       <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>20.5046686690035</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>2.9701417209557399</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>6.0208007113686799</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>3.6890260410478501</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>5.0141379641352097</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>1.6827499287718799</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>2.6590689664057501</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>1.94948315763666</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>1.0659939289448499</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>2.9605807438595</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <v>4.8526282284420104</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <v>4.6788498905845701</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="24">
         <v>6.1334520494824103</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="24">
         <v>6.7180144092570604</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="24">
         <v>4.5174938933734703</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>1.7971924282856599</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>6.45066326877871</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
